--- a/data/trans_orig/Q25_A_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q25_A_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C949F1A4-0B94-411B-8FFD-9F846ABF7F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5719853-0428-45B5-8CDB-CC96123E95D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A69BB5DD-C486-40F7-A261-34179B5900FB}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0C329FE8-D80A-4AE6-974A-5791DC560533}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -2823,7 +2823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB14D88B-7DC9-4E5E-9DB9-D03D0242B127}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB4315D-8802-4E8D-9834-92BD12E031C1}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4498,7 +4498,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEADEF8C-890B-4553-936C-1AB9F584D2D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65162DE4-3A8B-4A37-84E8-215999A68C33}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6173,7 +6173,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BE2F4F9-BF2C-478D-8CB4-E0BCB3025E3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07318A62-4707-4BBF-9AAB-906208B852EB}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7848,7 +7848,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F80A5CB5-2F1A-429F-B3E4-34EC69793894}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB8040AC-0F39-41C8-86A3-35D7580F003A}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/Q25_A_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q25_A_R-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5719853-0428-45B5-8CDB-CC96123E95D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B4CFF1D-5239-4C8B-863D-BB3DB847D4F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0C329FE8-D80A-4AE6-974A-5791DC560533}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B85424C2-B79F-4329-8282-8C5128824D93}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="795">
   <si>
     <t>Población en función del tiempo en años desde que dejó de fumar en 2007 (Tasa respuesta: 13,07%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Cuartil IV</t>
@@ -80,7 +80,7 @@
     <t>6,44%</t>
   </si>
   <si>
-    <t>35,85%</t>
+    <t>34,96%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -95,10 +95,10 @@
     <t>12,91%</t>
   </si>
   <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
   </si>
   <si>
     <t>Cuartil III</t>
@@ -107,2178 +107,2208 @@
     <t>39,45%</t>
   </si>
   <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>Cuartil II</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>Cuartil I</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población en función del tiempo en años desde que dejó de fumar en 2012 (Tasa respuesta: 17,27%)</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>Población en función del tiempo en años desde que dejó de fumar en 2016 (Tasa respuesta: 15,74%)</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
     <t>23,68%</t>
   </si>
   <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>Cuartil II</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>47,11%</t>
-  </si>
-  <si>
-    <t>Cuartil I</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>Población en función del tiempo en años desde que dejó de fumar en 2023 (Tasa respuesta: 14,51%)</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
   </si>
   <si>
     <t>18,5%</t>
   </si>
   <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
   </si>
   <si>
     <t>32,35%</t>
   </si>
   <si>
-    <t>61,83%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población en función del tiempo en años desde que dejó de fumar en 2012 (Tasa respuesta: 17,27%)</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>Población en función del tiempo en años desde que dejó de fumar en 2015 (Tasa respuesta: 15,74%)</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>Población en función del tiempo en años desde que dejó de fumar en 2023 (Tasa respuesta: 14,51%)</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
     <t>24,5%</t>
   </si>
   <si>
@@ -2309,9 +2339,6 @@
     <t>23,0%</t>
   </si>
   <si>
-    <t>25,5%</t>
-  </si>
-  <si>
     <t>34,12%</t>
   </si>
   <si>
@@ -2339,12 +2366,6 @@
     <t>17,31%</t>
   </si>
   <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
     <t>29,92%</t>
   </si>
   <si>
@@ -2360,18 +2381,12 @@
     <t>23,39%</t>
   </si>
   <si>
-    <t>31,34%</t>
-  </si>
-  <si>
     <t>28,98%</t>
   </si>
   <si>
     <t>23,93%</t>
   </si>
   <si>
-    <t>32,15%</t>
-  </si>
-  <si>
     <t>21,72%</t>
   </si>
   <si>
@@ -2409,9 +2424,6 @@
   </si>
   <si>
     <t>23,15%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
   </si>
 </sst>
 </file>
@@ -2823,7 +2835,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB4315D-8802-4E8D-9834-92BD12E031C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06930F47-97C6-4476-B420-3606C3CE6123}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3491,13 +3503,13 @@
         <v>24342</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3512,13 +3524,13 @@
         <v>53147</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H15" s="7">
         <v>10</v>
@@ -3527,13 +3539,13 @@
         <v>10792</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M15" s="7">
         <v>61</v>
@@ -3542,13 +3554,13 @@
         <v>63939</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3563,10 +3575,10 @@
         <v>64518</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>104</v>
@@ -3578,13 +3590,13 @@
         <v>36829</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M16" s="7">
         <v>97</v>
@@ -3593,13 +3605,13 @@
         <v>101348</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3614,13 +3626,13 @@
         <v>47067</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -3629,13 +3641,13 @@
         <v>26172</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M17" s="7">
         <v>67</v>
@@ -3644,13 +3656,13 @@
         <v>73239</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3706,7 +3718,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3718,13 +3730,13 @@
         <v>8347</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -3733,13 +3745,13 @@
         <v>1908</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -3748,13 +3760,13 @@
         <v>10256</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3769,13 +3781,13 @@
         <v>37146</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -3784,13 +3796,13 @@
         <v>6853</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="M20" s="7">
         <v>44</v>
@@ -3799,13 +3811,13 @@
         <v>43999</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3820,13 +3832,13 @@
         <v>49766</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H21" s="7">
         <v>12</v>
@@ -3835,13 +3847,13 @@
         <v>11823</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="M21" s="7">
         <v>60</v>
@@ -3850,13 +3862,13 @@
         <v>61589</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3871,13 +3883,13 @@
         <v>36102</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H22" s="7">
         <v>20</v>
@@ -3886,13 +3898,13 @@
         <v>19099</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M22" s="7">
         <v>54</v>
@@ -3901,13 +3913,13 @@
         <v>55201</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3963,7 +3975,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3975,13 +3987,13 @@
         <v>13876</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -3990,13 +4002,13 @@
         <v>1167</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M24" s="7">
         <v>16</v>
@@ -4005,13 +4017,13 @@
         <v>15043</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4026,13 +4038,13 @@
         <v>44084</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H25" s="7">
         <v>15</v>
@@ -4041,13 +4053,13 @@
         <v>16160</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M25" s="7">
         <v>60</v>
@@ -4056,13 +4068,13 @@
         <v>60244</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4077,13 +4089,13 @@
         <v>74223</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H26" s="7">
         <v>37</v>
@@ -4092,13 +4104,13 @@
         <v>38781</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M26" s="7">
         <v>118</v>
@@ -4107,13 +4119,13 @@
         <v>113004</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4128,13 +4140,13 @@
         <v>37078</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H27" s="7">
         <v>33</v>
@@ -4143,13 +4155,13 @@
         <v>32968</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M27" s="7">
         <v>73</v>
@@ -4158,13 +4170,13 @@
         <v>70047</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4232,13 +4244,13 @@
         <v>66129</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H29" s="7">
         <v>8</v>
@@ -4247,13 +4259,13 @@
         <v>8405</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M29" s="7">
         <v>73</v>
@@ -4262,13 +4274,13 @@
         <v>74535</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>85</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4283,13 +4295,13 @@
         <v>172920</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H30" s="7">
         <v>38</v>
@@ -4298,13 +4310,13 @@
         <v>40061</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M30" s="7">
         <v>210</v>
@@ -4313,13 +4325,13 @@
         <v>212981</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>203</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4334,13 +4346,13 @@
         <v>228293</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H31" s="7">
         <v>101</v>
@@ -4349,13 +4361,13 @@
         <v>105918</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M31" s="7">
         <v>333</v>
@@ -4364,13 +4376,13 @@
         <v>334211</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4385,13 +4397,13 @@
         <v>145602</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H32" s="7">
         <v>94</v>
@@ -4400,13 +4412,13 @@
         <v>94091</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M32" s="7">
         <v>235</v>
@@ -4415,13 +4427,13 @@
         <v>239692</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4477,7 +4489,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -4498,7 +4510,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65162DE4-3A8B-4A37-84E8-215999A68C33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF95D03-329D-4FD6-A509-79CB73F96E95}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4515,7 +4527,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4622,13 +4634,13 @@
         <v>1886</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>225</v>
+        <v>187</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -4637,13 +4649,13 @@
         <v>2239</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -4652,13 +4664,13 @@
         <v>4125</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>228</v>
+        <v>61</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>229</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4673,13 +4685,13 @@
         <v>6141</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -4688,13 +4700,13 @@
         <v>1028</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -4703,13 +4715,13 @@
         <v>7170</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4724,13 +4736,13 @@
         <v>9079</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -4739,13 +4751,13 @@
         <v>8982</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M6" s="7">
         <v>17</v>
@@ -4754,13 +4766,13 @@
         <v>18060</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4775,13 +4787,13 @@
         <v>8900</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4790,13 +4802,13 @@
         <v>2067</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>252</v>
+        <v>69</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -4805,13 +4817,13 @@
         <v>10967</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4879,13 +4891,13 @@
         <v>39435</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -4894,13 +4906,13 @@
         <v>4110</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="M9" s="7">
         <v>37</v>
@@ -4909,13 +4921,13 @@
         <v>43545</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>79</v>
+        <v>260</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>263</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4930,13 +4942,13 @@
         <v>35303</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -4945,13 +4957,13 @@
         <v>7054</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M10" s="7">
         <v>39</v>
@@ -4960,13 +4972,13 @@
         <v>42356</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>76</v>
+        <v>269</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>100</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4981,13 +4993,13 @@
         <v>54088</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H11" s="7">
         <v>21</v>
@@ -4996,13 +5008,13 @@
         <v>21484</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>171</v>
+        <v>131</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M11" s="7">
         <v>71</v>
@@ -5011,13 +5023,13 @@
         <v>75573</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5032,13 +5044,13 @@
         <v>38398</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H12" s="7">
         <v>26</v>
@@ -5047,13 +5059,13 @@
         <v>26575</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M12" s="7">
         <v>62</v>
@@ -5062,13 +5074,13 @@
         <v>64973</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5136,13 +5148,13 @@
         <v>43854</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -5151,13 +5163,13 @@
         <v>3179</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M14" s="7">
         <v>40</v>
@@ -5166,13 +5178,13 @@
         <v>47034</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>294</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5187,13 +5199,13 @@
         <v>66188</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H15" s="7">
         <v>21</v>
@@ -5202,13 +5214,13 @@
         <v>24163</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M15" s="7">
         <v>80</v>
@@ -5217,13 +5229,13 @@
         <v>90352</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5238,13 +5250,13 @@
         <v>77199</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
@@ -5253,13 +5265,13 @@
         <v>29410</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M16" s="7">
         <v>100</v>
@@ -5268,13 +5280,13 @@
         <v>106610</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5289,13 +5301,13 @@
         <v>69429</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>314</v>
+        <v>188</v>
       </c>
       <c r="H17" s="7">
         <v>38</v>
@@ -5304,10 +5316,10 @@
         <v>41568</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>316</v>
+        <v>66</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>317</v>
@@ -5381,7 +5393,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5447,10 +5459,10 @@
         <v>329</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H20" s="7">
         <v>15</v>
@@ -5638,7 +5650,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5704,10 +5716,10 @@
         <v>363</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="H25" s="7">
         <v>20</v>
@@ -5716,13 +5728,13 @@
         <v>23908</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>367</v>
       </c>
       <c r="M25" s="7">
         <v>62</v>
@@ -5731,10 +5743,10 @@
         <v>68773</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>369</v>
@@ -5785,10 +5797,10 @@
         <v>376</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>217</v>
+        <v>377</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5803,13 +5815,13 @@
         <v>54654</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H27" s="7">
         <v>29</v>
@@ -5818,13 +5830,13 @@
         <v>31717</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M27" s="7">
         <v>79</v>
@@ -5833,13 +5845,13 @@
         <v>86371</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>384</v>
+        <v>217</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>363</v>
+        <v>385</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>339</v>
+        <v>386</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5907,13 +5919,13 @@
         <v>144448</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>387</v>
+        <v>297</v>
       </c>
       <c r="H29" s="7">
         <v>21</v>
@@ -5922,13 +5934,13 @@
         <v>22625</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>188</v>
+        <v>391</v>
       </c>
       <c r="M29" s="7">
         <v>146</v>
@@ -5937,13 +5949,13 @@
         <v>167073</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5958,13 +5970,13 @@
         <v>204263</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>395</v>
+        <v>28</v>
       </c>
       <c r="H30" s="7">
         <v>63</v>
@@ -5973,13 +5985,13 @@
         <v>72836</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>113</v>
+        <v>399</v>
       </c>
       <c r="M30" s="7">
         <v>249</v>
@@ -5988,13 +6000,13 @@
         <v>277099</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6009,13 +6021,13 @@
         <v>256929</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="H31" s="7">
         <v>142</v>
@@ -6024,13 +6036,13 @@
         <v>153253</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="M31" s="7">
         <v>386</v>
@@ -6039,13 +6051,13 @@
         <v>410182</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6060,13 +6072,13 @@
         <v>222203</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>412</v>
+        <v>304</v>
       </c>
       <c r="H32" s="7">
         <v>132</v>
@@ -6075,13 +6087,13 @@
         <v>142404</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M32" s="7">
         <v>343</v>
@@ -6090,13 +6102,13 @@
         <v>364607</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6152,7 +6164,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -6173,7 +6185,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07318A62-4707-4BBF-9AAB-906208B852EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C5B253C-DDF7-41A6-9AC8-7CFF6782F615}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6190,7 +6202,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6297,13 +6309,13 @@
         <v>6166</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>91</v>
+        <v>421</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -6312,13 +6324,13 @@
         <v>1462</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -6327,13 +6339,13 @@
         <v>7628</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6348,13 +6360,13 @@
         <v>6140</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -6363,13 +6375,13 @@
         <v>2662</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>431</v>
+        <v>406</v>
       </c>
       <c r="M5" s="7">
         <v>9</v>
@@ -6378,13 +6390,13 @@
         <v>8802</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6399,10 +6411,10 @@
         <v>8042</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>435</v>
+        <v>92</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>436</v>
@@ -6429,13 +6441,13 @@
         <v>13329</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>141</v>
+        <v>440</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>441</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6450,13 +6462,13 @@
         <v>7593</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>275</v>
+        <v>442</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -6465,13 +6477,13 @@
         <v>8753</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M7" s="7">
         <v>16</v>
@@ -6480,13 +6492,13 @@
         <v>16346</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6554,13 +6566,13 @@
         <v>22292</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -6569,13 +6581,13 @@
         <v>5487</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>378</v>
+        <v>456</v>
       </c>
       <c r="M9" s="7">
         <v>27</v>
@@ -6584,13 +6596,13 @@
         <v>27778</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6605,13 +6617,13 @@
         <v>32935</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>458</v>
+        <v>281</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -6620,13 +6632,13 @@
         <v>7013</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>254</v>
+        <v>462</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="M10" s="7">
         <v>39</v>
@@ -6635,13 +6647,13 @@
         <v>39948</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6656,13 +6668,13 @@
         <v>35819</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="H11" s="7">
         <v>18</v>
@@ -6671,13 +6683,13 @@
         <v>17743</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="M11" s="7">
         <v>52</v>
@@ -6686,13 +6698,13 @@
         <v>53561</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6707,13 +6719,13 @@
         <v>16607</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="H12" s="7">
         <v>16</v>
@@ -6722,13 +6734,13 @@
         <v>15027</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>478</v>
+        <v>381</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>75</v>
+        <v>480</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="M12" s="7">
         <v>31</v>
@@ -6737,13 +6749,13 @@
         <v>31633</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>214</v>
+        <v>482</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>195</v>
+        <v>484</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6811,13 +6823,13 @@
         <v>36760</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="H14" s="7">
         <v>9</v>
@@ -6826,13 +6838,13 @@
         <v>9785</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>423</v>
+        <v>490</v>
       </c>
       <c r="M14" s="7">
         <v>46</v>
@@ -6841,13 +6853,13 @@
         <v>46545</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6862,13 +6874,13 @@
         <v>57096</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="H15" s="7">
         <v>28</v>
@@ -6877,13 +6889,13 @@
         <v>30628</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>356</v>
+        <v>498</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="M15" s="7">
         <v>85</v>
@@ -6892,13 +6904,13 @@
         <v>87725</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>416</v>
+        <v>500</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6913,13 +6925,13 @@
         <v>75515</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>497</v>
+        <v>404</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -6928,13 +6940,13 @@
         <v>32412</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>284</v>
+        <v>506</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="M16" s="7">
         <v>98</v>
@@ -6943,13 +6955,13 @@
         <v>107927</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>502</v>
+        <v>198</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6964,13 +6976,13 @@
         <v>46468</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="H17" s="7">
         <v>32</v>
@@ -6979,13 +6991,13 @@
         <v>30938</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>394</v>
+        <v>514</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="M17" s="7">
         <v>75</v>
@@ -6994,13 +7006,13 @@
         <v>77406</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7056,7 +7068,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7068,13 +7080,13 @@
         <v>26465</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -7083,13 +7095,13 @@
         <v>4244</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="M19" s="7">
         <v>30</v>
@@ -7098,13 +7110,13 @@
         <v>30710</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>519</v>
+        <v>162</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7119,13 +7131,13 @@
         <v>35976</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>362</v>
+        <v>528</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="H20" s="7">
         <v>17</v>
@@ -7134,13 +7146,13 @@
         <v>18110</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="M20" s="7">
         <v>51</v>
@@ -7149,13 +7161,13 @@
         <v>54085</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>526</v>
+        <v>413</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7170,13 +7182,13 @@
         <v>41805</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="H21" s="7">
         <v>37</v>
@@ -7185,13 +7197,13 @@
         <v>38179</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>532</v>
+        <v>213</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="M21" s="7">
         <v>75</v>
@@ -7200,13 +7212,13 @@
         <v>79984</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7221,13 +7233,13 @@
         <v>40272</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>537</v>
+        <v>364</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="H22" s="7">
         <v>21</v>
@@ -7236,13 +7248,13 @@
         <v>21632</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>541</v>
+        <v>338</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="M22" s="7">
         <v>59</v>
@@ -7251,13 +7263,13 @@
         <v>61904</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7313,7 +7325,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7325,13 +7337,13 @@
         <v>36879</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -7340,13 +7352,13 @@
         <v>2186</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="M24" s="7">
         <v>38</v>
@@ -7355,13 +7367,13 @@
         <v>39065</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7376,13 +7388,13 @@
         <v>55164</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>419</v>
+        <v>558</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="H25" s="7">
         <v>28</v>
@@ -7391,13 +7403,13 @@
         <v>32930</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>557</v>
+        <v>255</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="M25" s="7">
         <v>88</v>
@@ -7406,13 +7418,13 @@
         <v>88094</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7427,13 +7439,13 @@
         <v>55741</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="H26" s="7">
         <v>49</v>
@@ -7442,13 +7454,13 @@
         <v>53906</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="M26" s="7">
         <v>105</v>
@@ -7457,13 +7469,13 @@
         <v>109647</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7478,13 +7490,13 @@
         <v>51854</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="H27" s="7">
         <v>40</v>
@@ -7493,13 +7505,13 @@
         <v>44239</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>337</v>
+        <v>578</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="M27" s="7">
         <v>89</v>
@@ -7508,13 +7520,13 @@
         <v>96092</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>564</v>
+        <v>582</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7582,13 +7594,13 @@
         <v>128561</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="H29" s="7">
         <v>20</v>
@@ -7597,13 +7609,13 @@
         <v>23165</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="M29" s="7">
         <v>149</v>
@@ -7612,13 +7624,13 @@
         <v>151726</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7633,13 +7645,13 @@
         <v>187312</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="H30" s="7">
         <v>83</v>
@@ -7648,13 +7660,13 @@
         <v>91344</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="M30" s="7">
         <v>272</v>
@@ -7663,13 +7675,13 @@
         <v>278655</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7684,13 +7696,13 @@
         <v>216922</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>597</v>
+        <v>221</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="H31" s="7">
         <v>140</v>
@@ -7699,13 +7711,13 @@
         <v>147527</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>601</v>
+        <v>177</v>
       </c>
       <c r="M31" s="7">
         <v>343</v>
@@ -7714,13 +7726,13 @@
         <v>364449</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7735,13 +7747,13 @@
         <v>162793</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="H32" s="7">
         <v>118</v>
@@ -7750,13 +7762,13 @@
         <v>120588</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="M32" s="7">
         <v>270</v>
@@ -7765,13 +7777,13 @@
         <v>283381</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>437</v>
+        <v>616</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7827,7 +7839,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -7848,7 +7860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB8040AC-0F39-41C8-86A3-35D7580F003A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F52F040A-5022-4FF7-ADF3-049807F6E039}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7865,7 +7877,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7972,13 +7984,13 @@
         <v>8243</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -7993,7 +8005,7 @@
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -8002,13 +8014,13 @@
         <v>8243</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>101</v>
+        <v>623</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8026,10 +8038,10 @@
         <v>334</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -8038,13 +8050,13 @@
         <v>4347</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="M5" s="7">
         <v>13</v>
@@ -8053,13 +8065,13 @@
         <v>8658</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>465</v>
+        <v>630</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8074,13 +8086,13 @@
         <v>4035</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -8089,13 +8101,13 @@
         <v>2190</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="M6" s="7">
         <v>9</v>
@@ -8104,13 +8116,13 @@
         <v>6226</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8125,13 +8137,13 @@
         <v>1096</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -8140,13 +8152,13 @@
         <v>1484</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>58</v>
+        <v>642</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -8155,13 +8167,13 @@
         <v>2579</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8229,13 +8241,13 @@
         <v>27298</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>569</v>
+        <v>647</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>640</v>
+        <v>216</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="H9" s="7">
         <v>15</v>
@@ -8244,13 +8256,13 @@
         <v>8208</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>355</v>
+        <v>650</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M9" s="7">
         <v>58</v>
@@ -8259,13 +8271,13 @@
         <v>35506</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>645</v>
+        <v>653</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8280,13 +8292,13 @@
         <v>42470</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>646</v>
+        <v>654</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>647</v>
+        <v>655</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -8295,13 +8307,13 @@
         <v>13482</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="M10" s="7">
         <v>76</v>
@@ -8310,13 +8322,13 @@
         <v>55952</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>652</v>
+        <v>660</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>217</v>
+        <v>661</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>653</v>
+        <v>662</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8331,13 +8343,13 @@
         <v>19443</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>655</v>
+        <v>664</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>656</v>
+        <v>665</v>
       </c>
       <c r="H11" s="7">
         <v>18</v>
@@ -8346,13 +8358,13 @@
         <v>13403</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>657</v>
+        <v>666</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>658</v>
+        <v>667</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>659</v>
+        <v>668</v>
       </c>
       <c r="M11" s="7">
         <v>41</v>
@@ -8361,13 +8373,13 @@
         <v>32846</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>660</v>
+        <v>669</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8382,13 +8394,13 @@
         <v>10886</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>663</v>
+        <v>672</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>665</v>
+        <v>674</v>
       </c>
       <c r="H12" s="7">
         <v>13</v>
@@ -8397,13 +8409,13 @@
         <v>8536</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>666</v>
+        <v>675</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>279</v>
+        <v>677</v>
       </c>
       <c r="M12" s="7">
         <v>26</v>
@@ -8412,13 +8424,13 @@
         <v>19422</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>668</v>
+        <v>531</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8486,13 +8498,13 @@
         <v>42128</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="H14" s="7">
         <v>28</v>
@@ -8501,13 +8513,13 @@
         <v>17758</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>674</v>
+        <v>683</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>676</v>
+        <v>685</v>
       </c>
       <c r="M14" s="7">
         <v>84</v>
@@ -8516,13 +8528,13 @@
         <v>59886</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>677</v>
+        <v>517</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>678</v>
+        <v>686</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>679</v>
+        <v>687</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8537,13 +8549,13 @@
         <v>59400</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>681</v>
+        <v>689</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="H15" s="7">
         <v>35</v>
@@ -8552,13 +8564,13 @@
         <v>23419</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>683</v>
+        <v>691</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>684</v>
+        <v>692</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="M15" s="7">
         <v>102</v>
@@ -8567,13 +8579,13 @@
         <v>82819</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>686</v>
+        <v>694</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>687</v>
+        <v>695</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8588,13 +8600,13 @@
         <v>38235</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>689</v>
+        <v>697</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>691</v>
+        <v>699</v>
       </c>
       <c r="H16" s="7">
         <v>27</v>
@@ -8603,13 +8615,13 @@
         <v>18266</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>692</v>
+        <v>700</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>693</v>
+        <v>701</v>
       </c>
       <c r="M16" s="7">
         <v>66</v>
@@ -8618,13 +8630,13 @@
         <v>56501</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>694</v>
+        <v>702</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>663</v>
+        <v>672</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>695</v>
+        <v>703</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8639,13 +8651,13 @@
         <v>76034</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>696</v>
+        <v>704</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>698</v>
+        <v>706</v>
       </c>
       <c r="H17" s="7">
         <v>38</v>
@@ -8654,13 +8666,13 @@
         <v>28764</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>699</v>
+        <v>707</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>700</v>
+        <v>708</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>701</v>
+        <v>709</v>
       </c>
       <c r="M17" s="7">
         <v>66</v>
@@ -8669,13 +8681,13 @@
         <v>104798</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>702</v>
+        <v>710</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>703</v>
+        <v>711</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>704</v>
+        <v>712</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8731,7 +8743,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -8743,13 +8755,13 @@
         <v>47426</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>705</v>
+        <v>713</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>706</v>
+        <v>714</v>
       </c>
       <c r="H19" s="7">
         <v>23</v>
@@ -8758,13 +8770,13 @@
         <v>14020</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>707</v>
+        <v>715</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>708</v>
+        <v>716</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>709</v>
+        <v>578</v>
       </c>
       <c r="M19" s="7">
         <v>79</v>
@@ -8773,13 +8785,13 @@
         <v>61446</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>525</v>
+        <v>719</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8794,13 +8806,13 @@
         <v>39782</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>712</v>
+        <v>720</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
       <c r="H20" s="7">
         <v>31</v>
@@ -8809,13 +8821,13 @@
         <v>21150</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>716</v>
+        <v>543</v>
       </c>
       <c r="M20" s="7">
         <v>77</v>
@@ -8824,13 +8836,13 @@
         <v>60932</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8845,13 +8857,13 @@
         <v>37761</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>721</v>
+        <v>728</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>205</v>
+        <v>729</v>
       </c>
       <c r="H21" s="7">
         <v>28</v>
@@ -8860,13 +8872,13 @@
         <v>24884</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>722</v>
+        <v>730</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>723</v>
+        <v>480</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>724</v>
+        <v>731</v>
       </c>
       <c r="M21" s="7">
         <v>69</v>
@@ -8875,13 +8887,13 @@
         <v>62645</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>353</v>
+        <v>732</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>725</v>
+        <v>733</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>726</v>
+        <v>734</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8896,13 +8908,13 @@
         <v>25119</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>727</v>
+        <v>735</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>728</v>
+        <v>736</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="H22" s="7">
         <v>24</v>
@@ -8911,13 +8923,13 @@
         <v>21384</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>729</v>
+        <v>737</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>730</v>
+        <v>738</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>731</v>
+        <v>739</v>
       </c>
       <c r="M22" s="7">
         <v>46</v>
@@ -8926,13 +8938,13 @@
         <v>46503</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>732</v>
+        <v>609</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>733</v>
+        <v>740</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>734</v>
+        <v>741</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8988,7 +9000,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -9000,13 +9012,13 @@
         <v>59460</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>735</v>
+        <v>742</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>736</v>
+        <v>743</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="H24" s="7">
         <v>52</v>
@@ -9015,13 +9027,13 @@
         <v>34689</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>737</v>
+        <v>744</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>738</v>
+        <v>745</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>739</v>
+        <v>746</v>
       </c>
       <c r="M24" s="7">
         <v>133</v>
@@ -9030,13 +9042,13 @@
         <v>94150</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>740</v>
+        <v>747</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>333</v>
+        <v>748</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9054,10 +9066,10 @@
         <v>346</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>741</v>
+        <v>749</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>742</v>
+        <v>750</v>
       </c>
       <c r="H25" s="7">
         <v>54</v>
@@ -9066,13 +9078,13 @@
         <v>35613</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>743</v>
+        <v>751</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>399</v>
+        <v>752</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>566</v>
+        <v>200</v>
       </c>
       <c r="M25" s="7">
         <v>124</v>
@@ -9081,13 +9093,13 @@
         <v>94165</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>744</v>
+        <v>753</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>745</v>
+        <v>754</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>147</v>
+        <v>755</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9102,13 +9114,13 @@
         <v>48979</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>746</v>
+        <v>756</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>747</v>
+        <v>757</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>748</v>
+        <v>758</v>
       </c>
       <c r="H26" s="7">
         <v>51</v>
@@ -9117,13 +9129,13 @@
         <v>33126</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>526</v>
+        <v>413</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>749</v>
+        <v>759</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="M26" s="7">
         <v>106</v>
@@ -9132,13 +9144,13 @@
         <v>82105</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>751</v>
+        <v>761</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>640</v>
+        <v>216</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>752</v>
+        <v>762</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9153,13 +9165,13 @@
         <v>32947</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>753</v>
+        <v>763</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>754</v>
+        <v>764</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>755</v>
+        <v>765</v>
       </c>
       <c r="H27" s="7">
         <v>44</v>
@@ -9168,13 +9180,13 @@
         <v>35410</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>756</v>
+        <v>153</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>747</v>
+        <v>757</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>757</v>
+        <v>766</v>
       </c>
       <c r="M27" s="7">
         <v>79</v>
@@ -9183,13 +9195,13 @@
         <v>68357</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>758</v>
+        <v>767</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>759</v>
+        <v>768</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>760</v>
+        <v>769</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9257,13 +9269,13 @@
         <v>184554</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>761</v>
+        <v>770</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>762</v>
+        <v>771</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>763</v>
+        <v>772</v>
       </c>
       <c r="H29" s="7">
         <v>118</v>
@@ -9272,10 +9284,10 @@
         <v>74676</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>764</v>
+        <v>773</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>765</v>
+        <v>774</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>81</v>
@@ -9287,13 +9299,13 @@
         <v>259230</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>220</v>
+        <v>469</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>766</v>
+        <v>495</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>767</v>
+        <v>512</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9308,13 +9320,13 @@
         <v>204515</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>768</v>
+        <v>775</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>769</v>
+        <v>776</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>770</v>
+        <v>777</v>
       </c>
       <c r="H30" s="7">
         <v>149</v>
@@ -9323,13 +9335,13 @@
         <v>98011</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>771</v>
+        <v>778</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>772</v>
+        <v>779</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>773</v>
+        <v>134</v>
       </c>
       <c r="M30" s="7">
         <v>392</v>
@@ -9338,13 +9350,13 @@
         <v>302526</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>776</v>
+        <v>569</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9359,13 +9371,13 @@
         <v>148454</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="H31" s="7">
         <v>128</v>
@@ -9374,13 +9386,13 @@
         <v>91869</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="M31" s="7">
         <v>291</v>
@@ -9389,13 +9401,13 @@
         <v>240323</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9410,13 +9422,13 @@
         <v>146081</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="H32" s="7">
         <v>122</v>
@@ -9425,13 +9437,13 @@
         <v>95578</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="M32" s="7">
         <v>221</v>
@@ -9440,13 +9452,13 @@
         <v>241659</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>790</v>
+        <v>424</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9502,7 +9514,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q25_A_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q25_A_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B4CFF1D-5239-4C8B-863D-BB3DB847D4F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD0A13F6-4978-49A1-BB8B-76908B843A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B85424C2-B79F-4329-8282-8C5128824D93}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E89890FE-3B56-4500-BC27-7C1B974EA84F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="791">
   <si>
     <t>Población en función del tiempo en años desde que dejó de fumar en 2007 (Tasa respuesta: 13,07%)</t>
   </si>
@@ -80,7 +80,7 @@
     <t>6,44%</t>
   </si>
   <si>
-    <t>34,96%</t>
+    <t>35,85%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -95,2335 +95,2323 @@
     <t>12,91%</t>
   </si>
   <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>Cuartil III</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>Cuartil II</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>Cuartil I</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>60,2%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
     <t>4,77%</t>
   </si>
   <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>Cuartil III</t>
-  </si>
-  <si>
-    <t>39,45%</t>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población en función del tiempo en años desde que dejó de fumar en 2012 (Tasa respuesta: 17,27%)</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>Población en función del tiempo en años desde que dejó de fumar en 2016 (Tasa respuesta: 15,74%)</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
   </si>
   <si>
     <t>23,44%</t>
   </si>
   <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>Cuartil II</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
   </si>
   <si>
     <t>20,6%</t>
   </si>
   <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>Cuartil I</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
   </si>
   <si>
     <t>16,37%</t>
   </si>
   <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>47,11%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>Población en función del tiempo en años desde que dejó de fumar en 2023 (Tasa respuesta: 14,51%)</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
   </si>
   <si>
     <t>31,34%</t>
   </si>
   <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población en función del tiempo en años desde que dejó de fumar en 2012 (Tasa respuesta: 17,27%)</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>Población en función del tiempo en años desde que dejó de fumar en 2016 (Tasa respuesta: 15,74%)</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
   </si>
   <si>
     <t>37,04%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>Población en función del tiempo en años desde que dejó de fumar en 2023 (Tasa respuesta: 14,51%)</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
   </si>
 </sst>
 </file>
@@ -2835,7 +2823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06930F47-97C6-4476-B420-3606C3CE6123}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9739323-CEB0-46C0-83E6-57A1B62D3AFA}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3503,13 +3491,13 @@
         <v>24342</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3524,13 +3512,13 @@
         <v>53147</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H15" s="7">
         <v>10</v>
@@ -3539,13 +3527,13 @@
         <v>10792</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M15" s="7">
         <v>61</v>
@@ -3554,13 +3542,13 @@
         <v>63939</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3575,10 +3563,10 @@
         <v>64518</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>104</v>
@@ -3590,13 +3578,13 @@
         <v>36829</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M16" s="7">
         <v>97</v>
@@ -3605,13 +3593,13 @@
         <v>101348</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3626,13 +3614,13 @@
         <v>47067</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -3641,13 +3629,13 @@
         <v>26172</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M17" s="7">
         <v>67</v>
@@ -3656,13 +3644,13 @@
         <v>73239</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3718,7 +3706,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3730,13 +3718,13 @@
         <v>8347</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -3745,13 +3733,13 @@
         <v>1908</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -3760,13 +3748,13 @@
         <v>10256</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3781,13 +3769,13 @@
         <v>37146</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -3796,13 +3784,13 @@
         <v>6853</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="M20" s="7">
         <v>44</v>
@@ -3811,13 +3799,13 @@
         <v>43999</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3832,13 +3820,13 @@
         <v>49766</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H21" s="7">
         <v>12</v>
@@ -3847,13 +3835,13 @@
         <v>11823</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="M21" s="7">
         <v>60</v>
@@ -3862,13 +3850,13 @@
         <v>61589</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3883,13 +3871,13 @@
         <v>36102</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H22" s="7">
         <v>20</v>
@@ -3898,13 +3886,13 @@
         <v>19099</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M22" s="7">
         <v>54</v>
@@ -3913,13 +3901,13 @@
         <v>55201</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3975,7 +3963,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3987,13 +3975,13 @@
         <v>13876</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -4002,13 +3990,13 @@
         <v>1167</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M24" s="7">
         <v>16</v>
@@ -4017,13 +4005,13 @@
         <v>15043</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,13 +4026,13 @@
         <v>44084</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H25" s="7">
         <v>15</v>
@@ -4053,13 +4041,13 @@
         <v>16160</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M25" s="7">
         <v>60</v>
@@ -4068,13 +4056,13 @@
         <v>60244</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4089,13 +4077,13 @@
         <v>74223</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>26</v>
+        <v>170</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H26" s="7">
         <v>37</v>
@@ -4104,13 +4092,13 @@
         <v>38781</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M26" s="7">
         <v>118</v>
@@ -4119,13 +4107,13 @@
         <v>113004</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4140,13 +4128,13 @@
         <v>37078</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H27" s="7">
         <v>33</v>
@@ -4155,13 +4143,13 @@
         <v>32968</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M27" s="7">
         <v>73</v>
@@ -4170,13 +4158,13 @@
         <v>70047</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4244,13 +4232,13 @@
         <v>66129</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H29" s="7">
         <v>8</v>
@@ -4259,13 +4247,13 @@
         <v>8405</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M29" s="7">
         <v>73</v>
@@ -4274,13 +4262,13 @@
         <v>74535</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>197</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4295,13 +4283,13 @@
         <v>172920</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H30" s="7">
         <v>38</v>
@@ -4310,13 +4298,13 @@
         <v>40061</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M30" s="7">
         <v>210</v>
@@ -4325,13 +4313,13 @@
         <v>212981</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>117</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4346,13 +4334,13 @@
         <v>228293</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H31" s="7">
         <v>101</v>
@@ -4361,13 +4349,13 @@
         <v>105918</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M31" s="7">
         <v>333</v>
@@ -4376,13 +4364,13 @@
         <v>334211</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4397,13 +4385,13 @@
         <v>145602</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H32" s="7">
         <v>94</v>
@@ -4412,13 +4400,13 @@
         <v>94091</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M32" s="7">
         <v>235</v>
@@ -4427,13 +4415,13 @@
         <v>239692</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4489,7 +4477,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -4510,7 +4498,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF95D03-329D-4FD6-A509-79CB73F96E95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0BDF2DD-E11A-4AEA-BF83-80453037C67F}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4527,7 +4515,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4634,13 +4622,13 @@
         <v>1886</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -4649,13 +4637,13 @@
         <v>2239</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -4664,13 +4652,13 @@
         <v>4125</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>61</v>
+        <v>228</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>229</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4685,13 +4673,13 @@
         <v>6141</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -4700,13 +4688,13 @@
         <v>1028</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -4715,13 +4703,13 @@
         <v>7170</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4736,13 +4724,13 @@
         <v>9079</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -4751,13 +4739,13 @@
         <v>8982</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M6" s="7">
         <v>17</v>
@@ -4766,13 +4754,13 @@
         <v>18060</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4787,13 +4775,13 @@
         <v>8900</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4802,13 +4790,13 @@
         <v>2067</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>69</v>
+        <v>252</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -4817,13 +4805,13 @@
         <v>10967</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4891,13 +4879,13 @@
         <v>39435</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -4906,13 +4894,13 @@
         <v>4110</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M9" s="7">
         <v>37</v>
@@ -4921,13 +4909,13 @@
         <v>43545</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>260</v>
+        <v>79</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>153</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4942,13 +4930,13 @@
         <v>35303</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -4957,13 +4945,13 @@
         <v>7054</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>266</v>
+        <v>18</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M10" s="7">
         <v>39</v>
@@ -4972,13 +4960,13 @@
         <v>42356</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>269</v>
+        <v>76</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>270</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4993,13 +4981,13 @@
         <v>54088</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H11" s="7">
         <v>21</v>
@@ -5008,13 +4996,13 @@
         <v>21484</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M11" s="7">
         <v>71</v>
@@ -5023,13 +5011,13 @@
         <v>75573</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5044,13 +5032,13 @@
         <v>38398</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="H12" s="7">
         <v>26</v>
@@ -5059,13 +5047,13 @@
         <v>26575</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="M12" s="7">
         <v>62</v>
@@ -5074,13 +5062,13 @@
         <v>64973</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5148,13 +5136,13 @@
         <v>43854</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -5163,13 +5151,13 @@
         <v>3179</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M14" s="7">
         <v>40</v>
@@ -5178,13 +5166,13 @@
         <v>47034</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5199,13 +5187,13 @@
         <v>66188</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="H15" s="7">
         <v>21</v>
@@ -5214,13 +5202,13 @@
         <v>24163</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="M15" s="7">
         <v>80</v>
@@ -5229,13 +5217,13 @@
         <v>90352</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5250,13 +5238,13 @@
         <v>77199</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
@@ -5265,13 +5253,13 @@
         <v>29410</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="M16" s="7">
         <v>100</v>
@@ -5280,13 +5268,13 @@
         <v>106610</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5301,13 +5289,13 @@
         <v>69429</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H17" s="7">
         <v>38</v>
@@ -5316,10 +5304,10 @@
         <v>41568</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>317</v>
@@ -5393,7 +5381,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5459,10 +5447,10 @@
         <v>329</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>67</v>
+        <v>330</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>330</v>
+        <v>134</v>
       </c>
       <c r="H20" s="7">
         <v>15</v>
@@ -5650,7 +5638,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5716,10 +5704,10 @@
         <v>363</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>280</v>
+        <v>364</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="H25" s="7">
         <v>20</v>
@@ -5728,13 +5716,13 @@
         <v>23908</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>315</v>
+        <v>365</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M25" s="7">
         <v>62</v>
@@ -5743,10 +5731,10 @@
         <v>68773</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>368</v>
+        <v>257</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>369</v>
@@ -5797,10 +5785,10 @@
         <v>376</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5815,13 +5803,13 @@
         <v>54654</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="H27" s="7">
         <v>29</v>
@@ -5830,13 +5818,13 @@
         <v>31717</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="M27" s="7">
         <v>79</v>
@@ -5845,13 +5833,13 @@
         <v>86371</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>217</v>
+        <v>384</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>386</v>
+        <v>339</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5919,13 +5907,13 @@
         <v>144448</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="H29" s="7">
         <v>21</v>
@@ -5934,13 +5922,13 @@
         <v>22625</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="K29" s="7" t="s">
-        <v>390</v>
-      </c>
       <c r="L29" s="7" t="s">
-        <v>391</v>
+        <v>188</v>
       </c>
       <c r="M29" s="7">
         <v>146</v>
@@ -5949,13 +5937,13 @@
         <v>167073</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5970,13 +5958,13 @@
         <v>204263</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="H30" s="7">
         <v>63</v>
@@ -5985,13 +5973,13 @@
         <v>72836</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="K30" s="7" t="s">
-        <v>398</v>
-      </c>
       <c r="L30" s="7" t="s">
-        <v>399</v>
+        <v>113</v>
       </c>
       <c r="M30" s="7">
         <v>249</v>
@@ -6000,13 +5988,13 @@
         <v>277099</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6021,13 +6009,13 @@
         <v>256929</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>405</v>
       </c>
       <c r="H31" s="7">
         <v>142</v>
@@ -6036,13 +6024,13 @@
         <v>153253</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="M31" s="7">
         <v>386</v>
@@ -6051,13 +6039,13 @@
         <v>410182</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6072,13 +6060,13 @@
         <v>222203</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="H32" s="7">
         <v>132</v>
@@ -6087,13 +6075,13 @@
         <v>142404</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>416</v>
       </c>
       <c r="M32" s="7">
         <v>343</v>
@@ -6102,13 +6090,13 @@
         <v>364607</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="P32" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6164,7 +6152,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -6185,7 +6173,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C5B253C-DDF7-41A6-9AC8-7CFF6782F615}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A332167F-691F-4CA5-9218-A8BEF615DA88}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6202,7 +6190,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6309,13 +6297,13 @@
         <v>6166</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>422</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -6324,13 +6312,13 @@
         <v>1462</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -6339,13 +6327,13 @@
         <v>7628</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6360,13 +6348,13 @@
         <v>6140</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>430</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -6375,13 +6363,13 @@
         <v>2662</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>406</v>
       </c>
       <c r="M5" s="7">
         <v>9</v>
@@ -6390,13 +6378,13 @@
         <v>8802</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6411,10 +6399,10 @@
         <v>8042</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>92</v>
+        <v>435</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>436</v>
@@ -6441,13 +6429,13 @@
         <v>13329</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6462,13 +6450,13 @@
         <v>7593</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>444</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -6477,13 +6465,13 @@
         <v>8753</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>447</v>
       </c>
       <c r="M7" s="7">
         <v>16</v>
@@ -6492,13 +6480,13 @@
         <v>16346</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6566,13 +6554,13 @@
         <v>22292</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>453</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -6581,13 +6569,13 @@
         <v>5487</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="K9" s="7" t="s">
-        <v>455</v>
-      </c>
       <c r="L9" s="7" t="s">
-        <v>456</v>
+        <v>378</v>
       </c>
       <c r="M9" s="7">
         <v>27</v>
@@ -6596,13 +6584,13 @@
         <v>27778</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6617,13 +6605,13 @@
         <v>32935</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>281</v>
+        <v>458</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>461</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -6632,13 +6620,13 @@
         <v>7013</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>464</v>
       </c>
       <c r="M10" s="7">
         <v>39</v>
@@ -6647,13 +6635,13 @@
         <v>39948</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>465</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6668,13 +6656,13 @@
         <v>35819</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>468</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>470</v>
       </c>
       <c r="H11" s="7">
         <v>18</v>
@@ -6683,13 +6671,13 @@
         <v>17743</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>473</v>
       </c>
       <c r="M11" s="7">
         <v>52</v>
@@ -6698,13 +6686,13 @@
         <v>53561</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>474</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6719,13 +6707,13 @@
         <v>16607</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>477</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>479</v>
       </c>
       <c r="H12" s="7">
         <v>16</v>
@@ -6734,13 +6722,13 @@
         <v>15027</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>381</v>
+        <v>478</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>480</v>
+        <v>75</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="M12" s="7">
         <v>31</v>
@@ -6749,13 +6737,13 @@
         <v>31633</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>482</v>
+        <v>214</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>484</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6823,13 +6811,13 @@
         <v>36760</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="H14" s="7">
         <v>9</v>
@@ -6838,13 +6826,13 @@
         <v>9785</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>490</v>
+        <v>423</v>
       </c>
       <c r="M14" s="7">
         <v>46</v>
@@ -6853,13 +6841,13 @@
         <v>46545</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6874,13 +6862,13 @@
         <v>57096</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="H15" s="7">
         <v>28</v>
@@ -6889,13 +6877,13 @@
         <v>30628</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>498</v>
+        <v>356</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="M15" s="7">
         <v>85</v>
@@ -6904,13 +6892,13 @@
         <v>87725</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>500</v>
+        <v>416</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6925,13 +6913,13 @@
         <v>75515</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>404</v>
+        <v>497</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -6940,13 +6928,13 @@
         <v>32412</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>506</v>
+        <v>284</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="M16" s="7">
         <v>98</v>
@@ -6955,13 +6943,13 @@
         <v>107927</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>198</v>
+        <v>502</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6976,13 +6964,13 @@
         <v>46468</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="H17" s="7">
         <v>32</v>
@@ -6991,13 +6979,13 @@
         <v>30938</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>514</v>
+        <v>394</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="M17" s="7">
         <v>75</v>
@@ -7006,13 +6994,13 @@
         <v>77406</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7068,7 +7056,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7080,13 +7068,13 @@
         <v>26465</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -7095,13 +7083,13 @@
         <v>4244</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="M19" s="7">
         <v>30</v>
@@ -7110,13 +7098,13 @@
         <v>30710</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>162</v>
+        <v>519</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7131,13 +7119,13 @@
         <v>35976</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>528</v>
+        <v>362</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="H20" s="7">
         <v>17</v>
@@ -7146,13 +7134,13 @@
         <v>18110</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="M20" s="7">
         <v>51</v>
@@ -7161,13 +7149,13 @@
         <v>54085</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>413</v>
+        <v>526</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7182,13 +7170,13 @@
         <v>41805</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="H21" s="7">
         <v>37</v>
@@ -7197,13 +7185,13 @@
         <v>38179</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>213</v>
+        <v>532</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="M21" s="7">
         <v>75</v>
@@ -7212,13 +7200,13 @@
         <v>79984</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7233,13 +7221,13 @@
         <v>40272</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>364</v>
+        <v>537</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="H22" s="7">
         <v>21</v>
@@ -7248,13 +7236,13 @@
         <v>21632</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>338</v>
+        <v>541</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="M22" s="7">
         <v>59</v>
@@ -7263,13 +7251,13 @@
         <v>61904</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7325,7 +7313,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7337,13 +7325,13 @@
         <v>36879</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -7352,13 +7340,13 @@
         <v>2186</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="M24" s="7">
         <v>38</v>
@@ -7367,13 +7355,13 @@
         <v>39065</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7388,13 +7376,13 @@
         <v>55164</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>558</v>
+        <v>419</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="H25" s="7">
         <v>28</v>
@@ -7403,13 +7391,13 @@
         <v>32930</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>255</v>
+        <v>557</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="M25" s="7">
         <v>88</v>
@@ -7418,13 +7406,13 @@
         <v>88094</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7439,13 +7427,13 @@
         <v>55741</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="H26" s="7">
         <v>49</v>
@@ -7454,13 +7442,13 @@
         <v>53906</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="M26" s="7">
         <v>105</v>
@@ -7469,13 +7457,13 @@
         <v>109647</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7490,13 +7478,13 @@
         <v>51854</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="H27" s="7">
         <v>40</v>
@@ -7505,13 +7493,13 @@
         <v>44239</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>578</v>
+        <v>337</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="M27" s="7">
         <v>89</v>
@@ -7520,13 +7508,13 @@
         <v>96092</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>582</v>
+        <v>564</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7594,13 +7582,13 @@
         <v>128561</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="H29" s="7">
         <v>20</v>
@@ -7609,13 +7597,13 @@
         <v>23165</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="M29" s="7">
         <v>149</v>
@@ -7624,13 +7612,13 @@
         <v>151726</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7645,13 +7633,13 @@
         <v>187312</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="H30" s="7">
         <v>83</v>
@@ -7660,13 +7648,13 @@
         <v>91344</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="M30" s="7">
         <v>272</v>
@@ -7675,13 +7663,13 @@
         <v>278655</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7696,13 +7684,13 @@
         <v>216922</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>221</v>
+        <v>597</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="H31" s="7">
         <v>140</v>
@@ -7711,13 +7699,13 @@
         <v>147527</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>177</v>
+        <v>601</v>
       </c>
       <c r="M31" s="7">
         <v>343</v>
@@ -7726,13 +7714,13 @@
         <v>364449</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7747,13 +7735,13 @@
         <v>162793</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="H32" s="7">
         <v>118</v>
@@ -7762,13 +7750,13 @@
         <v>120588</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="M32" s="7">
         <v>270</v>
@@ -7777,13 +7765,13 @@
         <v>283381</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>616</v>
+        <v>437</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7839,7 +7827,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -7860,7 +7848,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F52F040A-5022-4FF7-ADF3-049807F6E039}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A188648B-A9A2-47C6-B8A3-9AFA188B5C67}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7877,7 +7865,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7984,13 +7972,13 @@
         <v>8243</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -8005,7 +7993,7 @@
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -8014,13 +8002,13 @@
         <v>8243</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>623</v>
+        <v>101</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8038,10 +8026,10 @@
         <v>334</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -8050,13 +8038,13 @@
         <v>4347</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="M5" s="7">
         <v>13</v>
@@ -8065,13 +8053,13 @@
         <v>8658</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>630</v>
+        <v>465</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8086,13 +8074,13 @@
         <v>4035</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -8101,13 +8089,13 @@
         <v>2190</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="M6" s="7">
         <v>9</v>
@@ -8116,13 +8104,13 @@
         <v>6226</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8137,13 +8125,13 @@
         <v>1096</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -8152,13 +8140,13 @@
         <v>1484</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>642</v>
+        <v>58</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -8167,13 +8155,13 @@
         <v>2579</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8241,13 +8229,13 @@
         <v>27298</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>647</v>
+        <v>569</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>216</v>
+        <v>640</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="H9" s="7">
         <v>15</v>
@@ -8256,13 +8244,13 @@
         <v>8208</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>650</v>
+        <v>355</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M9" s="7">
         <v>58</v>
@@ -8271,13 +8259,13 @@
         <v>35506</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8292,13 +8280,13 @@
         <v>42470</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -8307,13 +8295,13 @@
         <v>13482</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="M10" s="7">
         <v>76</v>
@@ -8322,13 +8310,13 @@
         <v>55952</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>661</v>
+        <v>217</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8343,13 +8331,13 @@
         <v>19443</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="H11" s="7">
         <v>18</v>
@@ -8358,13 +8346,13 @@
         <v>13403</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="M11" s="7">
         <v>41</v>
@@ -8373,13 +8361,13 @@
         <v>32846</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8394,13 +8382,13 @@
         <v>10886</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="H12" s="7">
         <v>13</v>
@@ -8409,13 +8397,13 @@
         <v>8536</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>677</v>
+        <v>279</v>
       </c>
       <c r="M12" s="7">
         <v>26</v>
@@ -8424,13 +8412,13 @@
         <v>19422</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>531</v>
+        <v>668</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8498,13 +8486,13 @@
         <v>42128</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="H14" s="7">
         <v>28</v>
@@ -8513,13 +8501,13 @@
         <v>17758</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="M14" s="7">
         <v>84</v>
@@ -8528,13 +8516,13 @@
         <v>59886</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>517</v>
+        <v>677</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8549,13 +8537,13 @@
         <v>59400</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="H15" s="7">
         <v>35</v>
@@ -8564,13 +8552,13 @@
         <v>23419</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="M15" s="7">
         <v>102</v>
@@ -8579,13 +8567,13 @@
         <v>82819</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8600,13 +8588,13 @@
         <v>38235</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="H16" s="7">
         <v>27</v>
@@ -8615,13 +8603,13 @@
         <v>18266</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="M16" s="7">
         <v>66</v>
@@ -8630,13 +8618,13 @@
         <v>56501</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8651,13 +8639,13 @@
         <v>76034</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="H17" s="7">
         <v>38</v>
@@ -8666,13 +8654,13 @@
         <v>28764</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="M17" s="7">
         <v>66</v>
@@ -8681,13 +8669,13 @@
         <v>104798</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8743,7 +8731,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -8755,13 +8743,13 @@
         <v>47426</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="H19" s="7">
         <v>23</v>
@@ -8770,13 +8758,13 @@
         <v>14020</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>578</v>
+        <v>709</v>
       </c>
       <c r="M19" s="7">
         <v>79</v>
@@ -8785,13 +8773,13 @@
         <v>61446</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>719</v>
+        <v>525</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8806,13 +8794,13 @@
         <v>39782</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="H20" s="7">
         <v>31</v>
@@ -8821,13 +8809,13 @@
         <v>21150</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>543</v>
+        <v>716</v>
       </c>
       <c r="M20" s="7">
         <v>77</v>
@@ -8836,13 +8824,13 @@
         <v>60932</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8857,13 +8845,13 @@
         <v>37761</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>729</v>
+        <v>205</v>
       </c>
       <c r="H21" s="7">
         <v>28</v>
@@ -8872,13 +8860,13 @@
         <v>24884</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>480</v>
+        <v>723</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="M21" s="7">
         <v>69</v>
@@ -8887,13 +8875,13 @@
         <v>62645</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>732</v>
+        <v>353</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8908,13 +8896,13 @@
         <v>25119</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H22" s="7">
         <v>24</v>
@@ -8923,13 +8911,13 @@
         <v>21384</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="M22" s="7">
         <v>46</v>
@@ -8938,13 +8926,13 @@
         <v>46503</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>609</v>
+        <v>732</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9000,7 +8988,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -9012,13 +9000,13 @@
         <v>59460</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="H24" s="7">
         <v>52</v>
@@ -9027,13 +9015,13 @@
         <v>34689</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="M24" s="7">
         <v>133</v>
@@ -9042,13 +9030,13 @@
         <v>94150</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>748</v>
+        <v>333</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9066,10 +9054,10 @@
         <v>346</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="H25" s="7">
         <v>54</v>
@@ -9078,13 +9066,13 @@
         <v>35613</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>752</v>
+        <v>399</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>200</v>
+        <v>566</v>
       </c>
       <c r="M25" s="7">
         <v>124</v>
@@ -9093,13 +9081,13 @@
         <v>94165</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>755</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9114,13 +9102,13 @@
         <v>48979</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="H26" s="7">
         <v>51</v>
@@ -9129,13 +9117,13 @@
         <v>33126</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>413</v>
+        <v>526</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="M26" s="7">
         <v>106</v>
@@ -9144,13 +9132,13 @@
         <v>82105</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>216</v>
+        <v>640</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9165,13 +9153,13 @@
         <v>32947</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="H27" s="7">
         <v>44</v>
@@ -9180,13 +9168,13 @@
         <v>35410</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>153</v>
+        <v>756</v>
       </c>
       <c r="K27" s="7" t="s">
+        <v>747</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>757</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>766</v>
       </c>
       <c r="M27" s="7">
         <v>79</v>
@@ -9195,13 +9183,13 @@
         <v>68357</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9269,13 +9257,13 @@
         <v>184554</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="H29" s="7">
         <v>118</v>
@@ -9284,10 +9272,10 @@
         <v>74676</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>81</v>
@@ -9299,13 +9287,13 @@
         <v>259230</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>469</v>
+        <v>220</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>495</v>
+        <v>766</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>512</v>
+        <v>767</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9320,13 +9308,13 @@
         <v>204515</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="H30" s="7">
         <v>149</v>
@@ -9335,13 +9323,13 @@
         <v>98011</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>134</v>
+        <v>773</v>
       </c>
       <c r="M30" s="7">
         <v>392</v>
@@ -9350,13 +9338,13 @@
         <v>302526</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>569</v>
+        <v>776</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9371,13 +9359,13 @@
         <v>148454</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="H31" s="7">
         <v>128</v>
@@ -9386,13 +9374,13 @@
         <v>91869</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="M31" s="7">
         <v>291</v>
@@ -9401,13 +9389,13 @@
         <v>240323</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9422,13 +9410,13 @@
         <v>146081</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="H32" s="7">
         <v>122</v>
@@ -9437,13 +9425,13 @@
         <v>95578</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M32" s="7">
         <v>221</v>
@@ -9452,13 +9440,13 @@
         <v>241659</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>424</v>
+        <v>790</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9514,7 +9502,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q25_A_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q25_A_R-Habitat-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población en función del tiempo en años desde que dejó de fumar</t>
+          <t>Tiempo medio en años desde que dejó de fumar</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,54; 15,09</t>
+          <t>11,37; 15,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,36; 15,28</t>
+          <t>11,34; 15,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,77; 15,37</t>
+          <t>11,79; 15,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,6; 19,38</t>
+          <t>15,76; 19,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,93; 8,37</t>
+          <t>4,89; 8,25</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,6; 9,03</t>
+          <t>5,45; 9,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,09; 15,8</t>
+          <t>7,31; 15,1</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,61; 14,95</t>
+          <t>10,58; 14,96</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,02; 13,01</t>
+          <t>10,15; 13,1</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>10,1; 13,14</t>
+          <t>9,95; 13,08</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>10,88; 14,37</t>
+          <t>10,86; 14,36</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>14,48; 17,59</t>
+          <t>14,73; 17,69</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,33; 12,16</t>
+          <t>9,44; 12,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,34; 13,08</t>
+          <t>10,42; 13,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,02; 13,86</t>
+          <t>10,99; 13,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,23; 16,22</t>
+          <t>3,25; 16,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,69; 8,99</t>
+          <t>5,67; 8,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,38; 9,73</t>
+          <t>6,45; 9,57</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,54; 12,57</t>
+          <t>8,76; 12,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,18; 14,13</t>
+          <t>10,02; 13,77</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,57; 10,69</t>
+          <t>8,66; 10,84</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,61; 11,84</t>
+          <t>9,67; 11,81</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,72; 12,96</t>
+          <t>10,64; 12,96</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,79; 14,92</t>
+          <t>3,95; 14,85</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,51; 11,46</t>
+          <t>8,47; 11,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,51; 14,66</t>
+          <t>10,58; 14,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,83; 14,71</t>
+          <t>10,86; 14,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>14,27; 18,7</t>
+          <t>14,41; 18,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,64; 8,96</t>
+          <t>4,62; 9,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,17; 7,4</t>
+          <t>5,1; 7,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,98; 10,58</t>
+          <t>6,96; 10,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,46; 13,75</t>
+          <t>9,72; 13,95</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,76; 10,2</t>
+          <t>7,91; 10,31</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>8,83; 11,65</t>
+          <t>8,82; 11,44</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>9,8; 12,44</t>
+          <t>9,89; 12,67</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>13,22; 16,39</t>
+          <t>13,12; 16,46</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,9; 11,6</t>
+          <t>8,93; 11,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,85; 13,0</t>
+          <t>9,68; 12,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,03; 13,98</t>
+          <t>11,02; 14,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,51; 17,74</t>
+          <t>14,3; 17,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,72; 8,67</t>
+          <t>5,71; 8,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,67; 10,99</t>
+          <t>7,73; 11,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,2; 8,66</t>
+          <t>6,19; 8,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,47; 16,6</t>
+          <t>12,32; 16,55</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>8,09; 10,14</t>
+          <t>8,06; 10,08</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>9,51; 11,87</t>
+          <t>9,43; 11,84</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>9,47; 11,48</t>
+          <t>9,44; 11,53</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,06; 16,57</t>
+          <t>14,06; 16,52</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10,16; 11,58</t>
+          <t>10,08; 11,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,25; 12,95</t>
+          <t>11,28; 12,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11,88; 13,51</t>
+          <t>11,84; 13,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,02; 16,68</t>
+          <t>6,88; 16,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,98; 7,72</t>
+          <t>5,94; 7,71</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,84; 8,46</t>
+          <t>6,87; 8,49</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,96; 9,87</t>
+          <t>7,99; 9,96</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>11,79; 13,99</t>
+          <t>11,76; 14,09</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,11; 10,29</t>
+          <t>9,07; 10,24</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>10,03; 11,31</t>
+          <t>10,08; 11,29</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>10,7; 12,01</t>
+          <t>10,7; 12,03</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,48; 15,36</t>
+          <t>7,35; 15,41</t>
         </is>
       </c>
     </row>
